--- a/wq_kalera_df.xlsx
+++ b/wq_kalera_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f93f53ee50e32d6a/Research/PhD/Data/wq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DBD7E3E-3EA9-42CA-BBEE-6A4C5B8E001D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{9DBD7E3E-3EA9-42CA-BBEE-6A4C5B8E001D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{971E7C99-B2F9-435B-BE90-0A05F050AE8C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{50909EA1-4BA1-4D97-815B-197E5636F4B2}"/>
+    <workbookView xWindow="-20268" yWindow="144" windowWidth="20376" windowHeight="12216" xr2:uid="{50909EA1-4BA1-4D97-815B-197E5636F4B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="25">
   <si>
     <t>Nitrate-Nitrogen</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>120820TP</t>
+  </si>
+  <si>
+    <t>kalera1</t>
+  </si>
+  <si>
+    <t>kalera2</t>
   </si>
 </sst>
 </file>
@@ -461,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61F1352-6A2C-4554-A0C6-AAC00809A264}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1255,6 +1261,924 @@
         <v>22</v>
       </c>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>147.55000000000001</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0.01</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D48" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>20.45</v>
+      </c>
+      <c r="C49" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D49" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>0.04</v>
+      </c>
+      <c r="C50" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D50" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>193.18</v>
+      </c>
+      <c r="C51" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>49.19</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D52" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>220.32</v>
+      </c>
+      <c r="C53" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D53" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>0.35</v>
+      </c>
+      <c r="C54" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D54" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>0.01</v>
+      </c>
+      <c r="C55" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D55" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>0.13</v>
+      </c>
+      <c r="C56" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D56" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C57" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D57" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>0.67</v>
+      </c>
+      <c r="C58" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D58" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59">
+        <v>6.6</v>
+      </c>
+      <c r="C59" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D59" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>169.4</v>
+      </c>
+      <c r="C60" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D60" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>13.67</v>
+      </c>
+      <c r="C61" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D61" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C62" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>110.32</v>
+      </c>
+      <c r="C63" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D63" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>148.75</v>
+      </c>
+      <c r="C64" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D64" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>27.34</v>
+      </c>
+      <c r="C65" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D65" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>102.37</v>
+      </c>
+      <c r="C66" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D66" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>0.21</v>
+      </c>
+      <c r="C67" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D67" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>0.01</v>
+      </c>
+      <c r="C68" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D68" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>0.31</v>
+      </c>
+      <c r="C69" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D69" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>1.68</v>
+      </c>
+      <c r="C70" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D70" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71">
+        <v>0.47</v>
+      </c>
+      <c r="C71" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D71" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72">
+        <v>6.2</v>
+      </c>
+      <c r="C72" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D72" s="1">
+        <v>44291</v>
+      </c>
+      <c r="E72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>212.5</v>
+      </c>
+      <c r="C73" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D73" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>6.92</v>
+      </c>
+      <c r="C74" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D74" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>23.37</v>
+      </c>
+      <c r="C75" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D75" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>117.55</v>
+      </c>
+      <c r="C76" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D76" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>152.68</v>
+      </c>
+      <c r="C77" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D77" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>33.619999999999997</v>
+      </c>
+      <c r="C78" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D78" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>127.21</v>
+      </c>
+      <c r="C79" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D79" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>0.26</v>
+      </c>
+      <c r="C80" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D80" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>0.01</v>
+      </c>
+      <c r="C81" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D81" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>0.38</v>
+      </c>
+      <c r="C82" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D82" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83">
+        <v>1.96</v>
+      </c>
+      <c r="C83" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D83" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84">
+        <v>0.35</v>
+      </c>
+      <c r="C84" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D84" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85">
+        <v>0.08</v>
+      </c>
+      <c r="C85" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D85" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86">
+        <v>7.1</v>
+      </c>
+      <c r="C86" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D86" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>221.43</v>
+      </c>
+      <c r="C87" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D87" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>0.01</v>
+      </c>
+      <c r="C88" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D88" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="C89" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D89" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>101.19</v>
+      </c>
+      <c r="C90" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D90" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91">
+        <v>159.72999999999999</v>
+      </c>
+      <c r="C91" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D91" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92">
+        <v>30.37</v>
+      </c>
+      <c r="C92" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D92" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93">
+        <v>109.35</v>
+      </c>
+      <c r="C93" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D93" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94">
+        <v>0.22</v>
+      </c>
+      <c r="C94" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D94" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>0.01</v>
+      </c>
+      <c r="C95" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D95" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96">
+        <v>0.2</v>
+      </c>
+      <c r="C96" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D96" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97">
+        <v>1.77</v>
+      </c>
+      <c r="C97" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D97" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98">
+        <v>0.51</v>
+      </c>
+      <c r="C98" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D98" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99">
+        <v>0.11</v>
+      </c>
+      <c r="C99" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D99" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100">
+        <v>6.2</v>
+      </c>
+      <c r="C100" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D100" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E100" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wq_kalera_df.xlsx
+++ b/wq_kalera_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f93f53ee50e32d6a/Research/PhD/Data/wq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{9DBD7E3E-3EA9-42CA-BBEE-6A4C5B8E001D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{971E7C99-B2F9-435B-BE90-0A05F050AE8C}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{9DBD7E3E-3EA9-42CA-BBEE-6A4C5B8E001D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C8FBCF81-82E5-40F5-A1BB-2DD86AF545AA}"/>
   <bookViews>
-    <workbookView xWindow="-20268" yWindow="144" windowWidth="20376" windowHeight="12216" xr2:uid="{50909EA1-4BA1-4D97-815B-197E5636F4B2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{50909EA1-4BA1-4D97-815B-197E5636F4B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="25">
   <si>
     <t>Nitrate-Nitrogen</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61F1352-6A2C-4554-A0C6-AAC00809A264}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2179,6 +2179,482 @@
         <v>24</v>
       </c>
     </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>149.25</v>
+      </c>
+      <c r="C101" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D101" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>0.01</v>
+      </c>
+      <c r="C102" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D102" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E102" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>35.78</v>
+      </c>
+      <c r="C103" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D103" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>143.29</v>
+      </c>
+      <c r="C104" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D104" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105">
+        <v>150.74</v>
+      </c>
+      <c r="C105" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D105" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E105" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <v>35.31</v>
+      </c>
+      <c r="C106" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D106" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107">
+        <v>127.9</v>
+      </c>
+      <c r="C107" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D107" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108">
+        <v>0.25</v>
+      </c>
+      <c r="C108" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D108" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>0.01</v>
+      </c>
+      <c r="C109" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D109" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E109" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110">
+        <v>0.11</v>
+      </c>
+      <c r="C110" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D110" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E110" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111">
+        <v>1.6</v>
+      </c>
+      <c r="C111" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D111" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E111" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112">
+        <v>0.37</v>
+      </c>
+      <c r="C112" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D112" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E112" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113">
+        <v>0.05</v>
+      </c>
+      <c r="C113" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D113" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E113" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114">
+        <v>6.1</v>
+      </c>
+      <c r="C114" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D114" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>156.72999999999999</v>
+      </c>
+      <c r="C115" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D115" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E115" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>0.11</v>
+      </c>
+      <c r="C116" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D116" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <v>27.74</v>
+      </c>
+      <c r="C117" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D117" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E117" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118">
+        <v>69.33</v>
+      </c>
+      <c r="C118" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D118" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E118" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119">
+        <v>187</v>
+      </c>
+      <c r="C119" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D119" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E119" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120">
+        <v>37.54</v>
+      </c>
+      <c r="C120" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D120" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E120" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121">
+        <v>134.94</v>
+      </c>
+      <c r="C121" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D121" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E121" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122">
+        <v>0.27</v>
+      </c>
+      <c r="C122" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D122" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E122" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123">
+        <v>0.01</v>
+      </c>
+      <c r="C123" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D123" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E123" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124">
+        <v>0.17</v>
+      </c>
+      <c r="C124" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D124" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E124" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C125" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D125" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E125" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126">
+        <v>0.62</v>
+      </c>
+      <c r="C126" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D126" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E126" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127">
+        <v>0.09</v>
+      </c>
+      <c r="C127" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D127" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E127" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128">
+        <v>6.3</v>
+      </c>
+      <c r="C128" s="1">
+        <v>44305</v>
+      </c>
+      <c r="D128" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E128" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wq_kalera_df.xlsx
+++ b/wq_kalera_df.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f93f53ee50e32d6a/Research/PhD/Data/wq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{9DBD7E3E-3EA9-42CA-BBEE-6A4C5B8E001D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C8FBCF81-82E5-40F5-A1BB-2DD86AF545AA}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="8_{9DBD7E3E-3EA9-42CA-BBEE-6A4C5B8E001D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2871F647-01F5-4236-9D4B-9453CD54DBE1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{50909EA1-4BA1-4D97-815B-197E5636F4B2}"/>
+    <workbookView xWindow="-20268" yWindow="144" windowWidth="20376" windowHeight="12216" xr2:uid="{50909EA1-4BA1-4D97-815B-197E5636F4B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="26">
   <si>
     <t>Nitrate-Nitrogen</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>kalera2</t>
+  </si>
+  <si>
+    <t>kalera3</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61F1352-6A2C-4554-A0C6-AAC00809A264}">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="E283" sqref="E283:E296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1272,7 +1275,7 @@
         <v>44288</v>
       </c>
       <c r="D47" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E47" t="s">
         <v>23</v>
@@ -1289,7 +1292,7 @@
         <v>44288</v>
       </c>
       <c r="D48" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E48" t="s">
         <v>23</v>
@@ -1306,7 +1309,7 @@
         <v>44288</v>
       </c>
       <c r="D49" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E49" t="s">
         <v>23</v>
@@ -1323,7 +1326,7 @@
         <v>44288</v>
       </c>
       <c r="D50" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E50" t="s">
         <v>23</v>
@@ -1340,7 +1343,7 @@
         <v>44288</v>
       </c>
       <c r="D51" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E51" t="s">
         <v>23</v>
@@ -1357,7 +1360,7 @@
         <v>44288</v>
       </c>
       <c r="D52" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E52" t="s">
         <v>23</v>
@@ -1374,7 +1377,7 @@
         <v>44288</v>
       </c>
       <c r="D53" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E53" t="s">
         <v>23</v>
@@ -1391,7 +1394,7 @@
         <v>44288</v>
       </c>
       <c r="D54" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E54" t="s">
         <v>23</v>
@@ -1408,7 +1411,7 @@
         <v>44288</v>
       </c>
       <c r="D55" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E55" t="s">
         <v>23</v>
@@ -1425,7 +1428,7 @@
         <v>44288</v>
       </c>
       <c r="D56" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E56" t="s">
         <v>23</v>
@@ -1442,7 +1445,7 @@
         <v>44288</v>
       </c>
       <c r="D57" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E57" t="s">
         <v>23</v>
@@ -1459,7 +1462,7 @@
         <v>44288</v>
       </c>
       <c r="D58" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E58" t="s">
         <v>23</v>
@@ -1476,7 +1479,7 @@
         <v>44288</v>
       </c>
       <c r="D59" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E59" t="s">
         <v>23</v>
@@ -1493,7 +1496,7 @@
         <v>44288</v>
       </c>
       <c r="D60" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E60" t="s">
         <v>24</v>
@@ -1510,7 +1513,7 @@
         <v>44288</v>
       </c>
       <c r="D61" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E61" t="s">
         <v>24</v>
@@ -1527,7 +1530,7 @@
         <v>44288</v>
       </c>
       <c r="D62" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E62" t="s">
         <v>24</v>
@@ -1544,7 +1547,7 @@
         <v>44288</v>
       </c>
       <c r="D63" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E63" t="s">
         <v>24</v>
@@ -1561,7 +1564,7 @@
         <v>44288</v>
       </c>
       <c r="D64" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E64" t="s">
         <v>24</v>
@@ -1578,7 +1581,7 @@
         <v>44288</v>
       </c>
       <c r="D65" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E65" t="s">
         <v>24</v>
@@ -1595,7 +1598,7 @@
         <v>44288</v>
       </c>
       <c r="D66" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E66" t="s">
         <v>24</v>
@@ -1612,7 +1615,7 @@
         <v>44288</v>
       </c>
       <c r="D67" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E67" t="s">
         <v>24</v>
@@ -1629,7 +1632,7 @@
         <v>44288</v>
       </c>
       <c r="D68" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E68" t="s">
         <v>24</v>
@@ -1646,7 +1649,7 @@
         <v>44288</v>
       </c>
       <c r="D69" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E69" t="s">
         <v>24</v>
@@ -1663,7 +1666,7 @@
         <v>44288</v>
       </c>
       <c r="D70" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E70" t="s">
         <v>24</v>
@@ -1680,7 +1683,7 @@
         <v>44288</v>
       </c>
       <c r="D71" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E71" t="s">
         <v>24</v>
@@ -1697,7 +1700,7 @@
         <v>44288</v>
       </c>
       <c r="D72" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E72" t="s">
         <v>24</v>
@@ -1714,7 +1717,7 @@
         <v>44298</v>
       </c>
       <c r="D73" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E73" t="s">
         <v>23</v>
@@ -1731,7 +1734,7 @@
         <v>44298</v>
       </c>
       <c r="D74" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E74" t="s">
         <v>23</v>
@@ -1748,7 +1751,7 @@
         <v>44298</v>
       </c>
       <c r="D75" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E75" t="s">
         <v>23</v>
@@ -1765,7 +1768,7 @@
         <v>44298</v>
       </c>
       <c r="D76" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E76" t="s">
         <v>23</v>
@@ -1782,7 +1785,7 @@
         <v>44298</v>
       </c>
       <c r="D77" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E77" t="s">
         <v>23</v>
@@ -1799,7 +1802,7 @@
         <v>44298</v>
       </c>
       <c r="D78" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E78" t="s">
         <v>23</v>
@@ -1816,7 +1819,7 @@
         <v>44298</v>
       </c>
       <c r="D79" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E79" t="s">
         <v>23</v>
@@ -1833,7 +1836,7 @@
         <v>44298</v>
       </c>
       <c r="D80" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E80" t="s">
         <v>23</v>
@@ -1850,7 +1853,7 @@
         <v>44298</v>
       </c>
       <c r="D81" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E81" t="s">
         <v>23</v>
@@ -1867,7 +1870,7 @@
         <v>44298</v>
       </c>
       <c r="D82" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E82" t="s">
         <v>23</v>
@@ -1884,7 +1887,7 @@
         <v>44298</v>
       </c>
       <c r="D83" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E83" t="s">
         <v>23</v>
@@ -1901,7 +1904,7 @@
         <v>44298</v>
       </c>
       <c r="D84" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E84" t="s">
         <v>23</v>
@@ -1918,7 +1921,7 @@
         <v>44298</v>
       </c>
       <c r="D85" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E85" t="s">
         <v>23</v>
@@ -1935,7 +1938,7 @@
         <v>44298</v>
       </c>
       <c r="D86" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E86" t="s">
         <v>23</v>
@@ -1952,7 +1955,7 @@
         <v>44298</v>
       </c>
       <c r="D87" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E87" t="s">
         <v>24</v>
@@ -1969,7 +1972,7 @@
         <v>44298</v>
       </c>
       <c r="D88" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E88" t="s">
         <v>24</v>
@@ -1986,7 +1989,7 @@
         <v>44298</v>
       </c>
       <c r="D89" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E89" t="s">
         <v>24</v>
@@ -2003,7 +2006,7 @@
         <v>44298</v>
       </c>
       <c r="D90" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E90" t="s">
         <v>24</v>
@@ -2020,7 +2023,7 @@
         <v>44298</v>
       </c>
       <c r="D91" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E91" t="s">
         <v>24</v>
@@ -2037,7 +2040,7 @@
         <v>44298</v>
       </c>
       <c r="D92" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E92" t="s">
         <v>24</v>
@@ -2054,7 +2057,7 @@
         <v>44298</v>
       </c>
       <c r="D93" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E93" t="s">
         <v>24</v>
@@ -2071,7 +2074,7 @@
         <v>44298</v>
       </c>
       <c r="D94" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E94" t="s">
         <v>24</v>
@@ -2088,7 +2091,7 @@
         <v>44298</v>
       </c>
       <c r="D95" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E95" t="s">
         <v>24</v>
@@ -2105,7 +2108,7 @@
         <v>44298</v>
       </c>
       <c r="D96" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E96" t="s">
         <v>24</v>
@@ -2122,7 +2125,7 @@
         <v>44298</v>
       </c>
       <c r="D97" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E97" t="s">
         <v>24</v>
@@ -2139,7 +2142,7 @@
         <v>44298</v>
       </c>
       <c r="D98" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E98" t="s">
         <v>24</v>
@@ -2156,7 +2159,7 @@
         <v>44298</v>
       </c>
       <c r="D99" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E99" t="s">
         <v>24</v>
@@ -2173,7 +2176,7 @@
         <v>44298</v>
       </c>
       <c r="D100" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E100" t="s">
         <v>24</v>
@@ -2653,6 +2656,2862 @@
       </c>
       <c r="E128" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>158.13</v>
+      </c>
+      <c r="C129" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D129" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E129" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>0.06</v>
+      </c>
+      <c r="C130" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D130" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E130" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131">
+        <v>29.14</v>
+      </c>
+      <c r="C131" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D131" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E131" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132">
+        <v>25.39</v>
+      </c>
+      <c r="C132" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D132" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E132" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133">
+        <v>189.91</v>
+      </c>
+      <c r="C133" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D133" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E133" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134">
+        <v>44.18</v>
+      </c>
+      <c r="C134" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D134" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E134" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135">
+        <v>165.41</v>
+      </c>
+      <c r="C135" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D135" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E135" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C136" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D136" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E136" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137">
+        <v>0.12</v>
+      </c>
+      <c r="C137" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D137" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E137" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138">
+        <v>0.05</v>
+      </c>
+      <c r="C138" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D138" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E138" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139">
+        <v>1.63</v>
+      </c>
+      <c r="C139" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D139" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E139" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140">
+        <v>0.52</v>
+      </c>
+      <c r="C140" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D140" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E140" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141">
+        <v>0.08</v>
+      </c>
+      <c r="C141" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D141" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E141" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142">
+        <v>6.2</v>
+      </c>
+      <c r="C142" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D142" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E142" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>161.15</v>
+      </c>
+      <c r="C143" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D143" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E143" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <v>6.51</v>
+      </c>
+      <c r="C144" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D144" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145">
+        <v>27.01</v>
+      </c>
+      <c r="C145" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D145" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E145" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146">
+        <v>126.74</v>
+      </c>
+      <c r="C146" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D146" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E146" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147">
+        <v>163.76</v>
+      </c>
+      <c r="C147" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D147" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E147" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148">
+        <v>40.630000000000003</v>
+      </c>
+      <c r="C148" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D148" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E148" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149">
+        <v>149.13999999999999</v>
+      </c>
+      <c r="C149" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D149" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E149" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150">
+        <v>0.3</v>
+      </c>
+      <c r="C150" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D150" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E150" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151">
+        <v>0.06</v>
+      </c>
+      <c r="C151" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D151" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E151" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152">
+        <v>0.31</v>
+      </c>
+      <c r="C152" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D152" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E152" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153">
+        <v>1.72</v>
+      </c>
+      <c r="C153" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D153" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E153" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154">
+        <v>0.48</v>
+      </c>
+      <c r="C154" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D154" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E154" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155">
+        <v>0.08</v>
+      </c>
+      <c r="C155" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D155" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E155" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156">
+        <v>6</v>
+      </c>
+      <c r="C156" s="1">
+        <v>44319</v>
+      </c>
+      <c r="D156" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E156" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>198.28</v>
+      </c>
+      <c r="C157" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D157" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E157" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158">
+        <v>0.06</v>
+      </c>
+      <c r="C158" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D158" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159">
+        <v>18.07</v>
+      </c>
+      <c r="C159" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D159" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E159" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160">
+        <v>35.03</v>
+      </c>
+      <c r="C160" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D160" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E160" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161">
+        <v>224.09</v>
+      </c>
+      <c r="C161" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D161" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E161" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162">
+        <v>50.52</v>
+      </c>
+      <c r="C162" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D162" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E162" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163">
+        <v>207.74</v>
+      </c>
+      <c r="C163" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D163" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E163" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164">
+        <v>0.34</v>
+      </c>
+      <c r="C164" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D164" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E164" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165">
+        <v>0.67</v>
+      </c>
+      <c r="C165" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D165" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E165" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166">
+        <v>0.32</v>
+      </c>
+      <c r="C166" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D166" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E166" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167">
+        <v>1.95</v>
+      </c>
+      <c r="C167" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D167" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E167" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168">
+        <v>0.69</v>
+      </c>
+      <c r="C168" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D168" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E168" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169">
+        <v>0.1</v>
+      </c>
+      <c r="C169" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D169" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E169" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170">
+        <v>6</v>
+      </c>
+      <c r="C170" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D170" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E170" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171">
+        <v>198.28</v>
+      </c>
+      <c r="C171" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D171" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E171" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172">
+        <v>0.06</v>
+      </c>
+      <c r="C172" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D172" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E172" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173">
+        <v>23.25</v>
+      </c>
+      <c r="C173" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D173" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E173" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>3</v>
+      </c>
+      <c r="B174">
+        <v>110.18</v>
+      </c>
+      <c r="C174" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D174" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E174" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175">
+        <v>177.25</v>
+      </c>
+      <c r="C175" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D175" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E175" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176">
+        <v>45.53</v>
+      </c>
+      <c r="C176" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D176" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E176" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177">
+        <v>159.47999999999999</v>
+      </c>
+      <c r="C177" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D177" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E177" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178">
+        <v>0.32</v>
+      </c>
+      <c r="C178" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D178" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E178" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179">
+        <v>0.74</v>
+      </c>
+      <c r="C179" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D179" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E179" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180">
+        <v>0.38</v>
+      </c>
+      <c r="C180" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D180" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E180" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181">
+        <v>1.87</v>
+      </c>
+      <c r="C181" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D181" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E181" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182">
+        <v>0.52</v>
+      </c>
+      <c r="C182" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D182" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E182" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B183">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C183" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D183" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E183" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184">
+        <v>6.1</v>
+      </c>
+      <c r="C184" s="1">
+        <v>44326</v>
+      </c>
+      <c r="D184" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E184" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185">
+        <v>188.83</v>
+      </c>
+      <c r="C185" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D185" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E185" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186">
+        <v>0.06</v>
+      </c>
+      <c r="C186" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D186" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E186" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>2</v>
+      </c>
+      <c r="B187">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="C187" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D187" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E187" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188">
+        <v>19.93</v>
+      </c>
+      <c r="C188" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D188" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E188" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189">
+        <v>216.73</v>
+      </c>
+      <c r="C189" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D189" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E189" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190">
+        <v>57.84</v>
+      </c>
+      <c r="C190" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D190" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E190" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191">
+        <v>213.46</v>
+      </c>
+      <c r="C191" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D191" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E191" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192">
+        <v>0.39</v>
+      </c>
+      <c r="C192" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D192" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193">
+        <v>1.01</v>
+      </c>
+      <c r="C193" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D193" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E193" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194">
+        <v>0.46</v>
+      </c>
+      <c r="C194" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D194" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E194" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195">
+        <v>2.14</v>
+      </c>
+      <c r="C195" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D195" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E195" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>11</v>
+      </c>
+      <c r="B196">
+        <v>0.73</v>
+      </c>
+      <c r="C196" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D196" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E196" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>12</v>
+      </c>
+      <c r="B197">
+        <v>0.1</v>
+      </c>
+      <c r="C197" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D197" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E197" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198">
+        <v>6</v>
+      </c>
+      <c r="C198" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D198" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E198" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="C199" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D199" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E199" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200">
+        <v>7.56</v>
+      </c>
+      <c r="C200" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D200" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E200" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>2</v>
+      </c>
+      <c r="B201">
+        <v>26.46</v>
+      </c>
+      <c r="C201" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D201" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E201" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>3</v>
+      </c>
+      <c r="B202">
+        <v>113.65</v>
+      </c>
+      <c r="C202" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D202" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E202" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="C203" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D203" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E203" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204">
+        <v>39.270000000000003</v>
+      </c>
+      <c r="C204" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D204" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E204" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205">
+        <v>139.88</v>
+      </c>
+      <c r="C205" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D205" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E205" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>7</v>
+      </c>
+      <c r="B206">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C206" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D206" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E206" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207">
+        <v>0.22</v>
+      </c>
+      <c r="C207" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D207" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E207" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208">
+        <v>0.61</v>
+      </c>
+      <c r="C208" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D208" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E208" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209">
+        <v>1.61</v>
+      </c>
+      <c r="C209" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D209" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E209" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>11</v>
+      </c>
+      <c r="B210">
+        <v>0.34</v>
+      </c>
+      <c r="C210" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D210" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E210" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>12</v>
+      </c>
+      <c r="B211">
+        <v>0.08</v>
+      </c>
+      <c r="C211" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D211" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E211" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212">
+        <v>6.2</v>
+      </c>
+      <c r="C212" s="1">
+        <v>44330</v>
+      </c>
+      <c r="D212" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E212" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213">
+        <v>177.95</v>
+      </c>
+      <c r="C213" s="1">
+        <v>44340</v>
+      </c>
+      <c r="D213" s="1">
+        <v>44341</v>
+      </c>
+      <c r="E213" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>1</v>
+      </c>
+      <c r="B214">
+        <v>3.23</v>
+      </c>
+      <c r="C214" s="1">
+        <v>44340</v>
+      </c>
+      <c r="D214" s="1">
+        <v>44341</v>
+      </c>
+      <c r="E214" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>2</v>
+      </c>
+      <c r="B215">
+        <v>25.68</v>
+      </c>
+      <c r="C215" s="1">
+        <v>44340</v>
+      </c>
+      <c r="D215" s="1">
+        <v>44341</v>
+      </c>
+      <c r="E215" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>3</v>
+      </c>
+      <c r="B216">
+        <v>138.03</v>
+      </c>
+      <c r="C216" s="1">
+        <v>44340</v>
+      </c>
+      <c r="D216" s="1">
+        <v>44341</v>
+      </c>
+      <c r="E216" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217">
+        <v>142.94999999999999</v>
+      </c>
+      <c r="C217" s="1">
+        <v>44340</v>
+      </c>
+      <c r="D217" s="1">
+        <v>44341</v>
+      </c>
+      <c r="E217" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="C218" s="1">
+        <v>44340</v>
+      </c>
+      <c r="D218" s="1">
+        <v>44341</v>
+      </c>
+      <c r="E218" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219">
+        <v>139.31</v>
+      </c>
+      <c r="C219" s="1">
+        <v>44340</v>
+      </c>
+      <c r="D219" s="1">
+        <v>44341</v>
+      </c>
+      <c r="E219" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C220" s="1">
+        <v>44340</v>
+      </c>
+      <c r="D220" s="1">
+        <v>44341</v>
+      </c>
+      <c r="E220" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>8</v>
+      </c>
+      <c r="B221">
+        <v>0.03</v>
+      </c>
+      <c r="C221" s="1">
+        <v>44340</v>
+      </c>
+      <c r="D221" s="1">
+        <v>44341</v>
+      </c>
+      <c r="E221" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>9</v>
+      </c>
+      <c r="B222">
+        <v>0.34</v>
+      </c>
+      <c r="C222" s="1">
+        <v>44340</v>
+      </c>
+      <c r="D222" s="1">
+        <v>44341</v>
+      </c>
+      <c r="E222" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223">
+        <v>1.65</v>
+      </c>
+      <c r="C223" s="1">
+        <v>44340</v>
+      </c>
+      <c r="D223" s="1">
+        <v>44341</v>
+      </c>
+      <c r="E223" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>11</v>
+      </c>
+      <c r="B224">
+        <v>0.38</v>
+      </c>
+      <c r="C224" s="1">
+        <v>44340</v>
+      </c>
+      <c r="D224" s="1">
+        <v>44341</v>
+      </c>
+      <c r="E224" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>12</v>
+      </c>
+      <c r="B225">
+        <v>0.09</v>
+      </c>
+      <c r="C225" s="1">
+        <v>44340</v>
+      </c>
+      <c r="D225" s="1">
+        <v>44341</v>
+      </c>
+      <c r="E225" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>13</v>
+      </c>
+      <c r="B226">
+        <v>6</v>
+      </c>
+      <c r="C226" s="1">
+        <v>44340</v>
+      </c>
+      <c r="D226" s="1">
+        <v>44341</v>
+      </c>
+      <c r="E226" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227">
+        <v>163.22999999999999</v>
+      </c>
+      <c r="C227" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D227" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E227" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>1</v>
+      </c>
+      <c r="B228">
+        <v>5.98</v>
+      </c>
+      <c r="C228" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D228" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E228" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>2</v>
+      </c>
+      <c r="B229">
+        <v>29.75</v>
+      </c>
+      <c r="C229" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D229" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E229" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>3</v>
+      </c>
+      <c r="B230">
+        <v>155.36000000000001</v>
+      </c>
+      <c r="C230" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D230" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E230" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>4</v>
+      </c>
+      <c r="B231">
+        <v>156.53</v>
+      </c>
+      <c r="C231" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D231" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E231" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232">
+        <v>43.72</v>
+      </c>
+      <c r="C232" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D232" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E232" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233">
+        <v>158.25</v>
+      </c>
+      <c r="C233" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D233" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E233" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>7</v>
+      </c>
+      <c r="B234">
+        <v>0.33</v>
+      </c>
+      <c r="C234" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D234" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E234" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>8</v>
+      </c>
+      <c r="B235">
+        <v>0.05</v>
+      </c>
+      <c r="C235" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D235" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E235" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>9</v>
+      </c>
+      <c r="B236">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C236" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D236" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E236" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237">
+        <v>1.43</v>
+      </c>
+      <c r="C237" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D237" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E237" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>11</v>
+      </c>
+      <c r="B238">
+        <v>0.43</v>
+      </c>
+      <c r="C238" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D238" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E238" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>12</v>
+      </c>
+      <c r="B239">
+        <v>0.1</v>
+      </c>
+      <c r="C239" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D239" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E239" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>13</v>
+      </c>
+      <c r="B240">
+        <v>6</v>
+      </c>
+      <c r="C240" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D240" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E240" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>0</v>
+      </c>
+      <c r="B241">
+        <v>175</v>
+      </c>
+      <c r="C241" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D241" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E241" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>1</v>
+      </c>
+      <c r="B242">
+        <v>0.01</v>
+      </c>
+      <c r="C242" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D242" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E242" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>2</v>
+      </c>
+      <c r="B243">
+        <v>21.72</v>
+      </c>
+      <c r="C243" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D243" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E243" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>3</v>
+      </c>
+      <c r="B244">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="C244" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D244" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E244" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>4</v>
+      </c>
+      <c r="B245">
+        <v>150.66999999999999</v>
+      </c>
+      <c r="C245" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D245" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E245" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246">
+        <v>42.36</v>
+      </c>
+      <c r="C246" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D246" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E246" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>6</v>
+      </c>
+      <c r="B247">
+        <v>150.4</v>
+      </c>
+      <c r="C247" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D247" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E247" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>7</v>
+      </c>
+      <c r="B248">
+        <v>0.32</v>
+      </c>
+      <c r="C248" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D248" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E248" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>8</v>
+      </c>
+      <c r="B249">
+        <v>0.26</v>
+      </c>
+      <c r="C249" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D249" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E249" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>9</v>
+      </c>
+      <c r="B250">
+        <v>0.38</v>
+      </c>
+      <c r="C250" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D250" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E250" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>10</v>
+      </c>
+      <c r="B251">
+        <v>1.56</v>
+      </c>
+      <c r="C251" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D251" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E251" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>11</v>
+      </c>
+      <c r="B252">
+        <v>0.39</v>
+      </c>
+      <c r="C252" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D252" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E252" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>12</v>
+      </c>
+      <c r="B253">
+        <v>0.08</v>
+      </c>
+      <c r="C253" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D253" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E253" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>13</v>
+      </c>
+      <c r="B254">
+        <v>6.4</v>
+      </c>
+      <c r="C254" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D254" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E254" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B255">
+        <v>186.48</v>
+      </c>
+      <c r="C255" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D255" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E255" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>1</v>
+      </c>
+      <c r="B256">
+        <v>0.01</v>
+      </c>
+      <c r="C256" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D256" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E256" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>2</v>
+      </c>
+      <c r="B257">
+        <v>26.49</v>
+      </c>
+      <c r="C257" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D257" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E257" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>3</v>
+      </c>
+      <c r="B258">
+        <v>174.05</v>
+      </c>
+      <c r="C258" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D258" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E258" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>4</v>
+      </c>
+      <c r="B259">
+        <v>177.32</v>
+      </c>
+      <c r="C259" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D259" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E259" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260">
+        <v>50.35</v>
+      </c>
+      <c r="C260" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D260" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E260" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>6</v>
+      </c>
+      <c r="B261">
+        <v>180.48</v>
+      </c>
+      <c r="C261" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D261" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E261" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>7</v>
+      </c>
+      <c r="B262">
+        <v>0.33</v>
+      </c>
+      <c r="C262" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D262" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E262" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>8</v>
+      </c>
+      <c r="B263">
+        <v>0.25</v>
+      </c>
+      <c r="C263" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D263" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E263" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>9</v>
+      </c>
+      <c r="B264">
+        <v>0.36</v>
+      </c>
+      <c r="C264" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D264" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E264" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>10</v>
+      </c>
+      <c r="B265">
+        <v>1.56</v>
+      </c>
+      <c r="C265" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D265" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E265" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>11</v>
+      </c>
+      <c r="B266">
+        <v>0.53</v>
+      </c>
+      <c r="C266" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D266" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E266" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>12</v>
+      </c>
+      <c r="B267">
+        <v>0.05</v>
+      </c>
+      <c r="C267" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D267" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E267" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>13</v>
+      </c>
+      <c r="B268">
+        <v>6.1</v>
+      </c>
+      <c r="C268" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D268" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E268" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>0</v>
+      </c>
+      <c r="B269">
+        <v>198.9</v>
+      </c>
+      <c r="C269" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D269" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E269" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>1</v>
+      </c>
+      <c r="B270">
+        <v>4.03</v>
+      </c>
+      <c r="C270" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D270" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E270" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>2</v>
+      </c>
+      <c r="B271">
+        <v>30.85</v>
+      </c>
+      <c r="C271" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D271" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E271" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>3</v>
+      </c>
+      <c r="B272">
+        <v>178.82</v>
+      </c>
+      <c r="C272" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D272" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E272" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>4</v>
+      </c>
+      <c r="B273">
+        <v>178.99</v>
+      </c>
+      <c r="C273" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D273" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E273" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274">
+        <v>53.64</v>
+      </c>
+      <c r="C274" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D274" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E274" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>6</v>
+      </c>
+      <c r="B275">
+        <v>191.44</v>
+      </c>
+      <c r="C275" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D275" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E275" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>7</v>
+      </c>
+      <c r="B276">
+        <v>0.38</v>
+      </c>
+      <c r="C276" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D276" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E276" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>8</v>
+      </c>
+      <c r="B277">
+        <v>0.32</v>
+      </c>
+      <c r="C277" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D277" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E277" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>9</v>
+      </c>
+      <c r="B278">
+        <v>0.19</v>
+      </c>
+      <c r="C278" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D278" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E278" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>10</v>
+      </c>
+      <c r="B279">
+        <v>1.62</v>
+      </c>
+      <c r="C279" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D279" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E279" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>11</v>
+      </c>
+      <c r="B280">
+        <v>0.64</v>
+      </c>
+      <c r="C280" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D280" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E280" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C281" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D281" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E281" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>13</v>
+      </c>
+      <c r="B282">
+        <v>5.8</v>
+      </c>
+      <c r="C282" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D282" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E282" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>0</v>
+      </c>
+      <c r="B283">
+        <v>204.43</v>
+      </c>
+      <c r="C283" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D283" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E283" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>1</v>
+      </c>
+      <c r="B284">
+        <v>0.02</v>
+      </c>
+      <c r="C284" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D284" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E284" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>2</v>
+      </c>
+      <c r="B285">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="C285" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D285" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E285" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>3</v>
+      </c>
+      <c r="B286">
+        <v>165.44</v>
+      </c>
+      <c r="C286" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D286" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E286" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>4</v>
+      </c>
+      <c r="B287">
+        <v>184.08</v>
+      </c>
+      <c r="C287" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D287" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E287" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>5</v>
+      </c>
+      <c r="B288">
+        <v>53.97</v>
+      </c>
+      <c r="C288" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D288" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E288" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>6</v>
+      </c>
+      <c r="B289">
+        <v>198.96</v>
+      </c>
+      <c r="C289" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D289" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E289" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>7</v>
+      </c>
+      <c r="B290">
+        <v>0.36</v>
+      </c>
+      <c r="C290" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D290" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E290" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>8</v>
+      </c>
+      <c r="B291">
+        <v>0.54</v>
+      </c>
+      <c r="C291" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D291" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E291" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>9</v>
+      </c>
+      <c r="B292">
+        <v>0.36</v>
+      </c>
+      <c r="C292" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D292" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E292" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>10</v>
+      </c>
+      <c r="B293">
+        <v>1.97</v>
+      </c>
+      <c r="C293" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D293" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E293" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>11</v>
+      </c>
+      <c r="B294">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C294" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D294" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E294" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>12</v>
+      </c>
+      <c r="B295">
+        <v>0.08</v>
+      </c>
+      <c r="C295" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D295" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E295" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>13</v>
+      </c>
+      <c r="B296">
+        <v>6.1</v>
+      </c>
+      <c r="C296" s="1">
+        <v>44354</v>
+      </c>
+      <c r="D296" s="1">
+        <v>44361</v>
+      </c>
+      <c r="E296" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
